--- a/Resultados/data&model/Plantilla.xlsx
+++ b/Resultados/data&model/Plantilla.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLANBENG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blancabengoa/Desktop/KSchool/TFM/master_data_science_BB/Resultados/data&amp;model/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3ACC5D9-3387-334C-8B37-280FCC04C4BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -377,22 +378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -415,504 +416,504 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1">
-        <v>6211</v>
+        <v>3077</v>
       </c>
       <c r="C2" s="1">
-        <v>29344</v>
+        <v>29346</v>
       </c>
       <c r="D2" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E2" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F2" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>56.5</v>
+        <v>66.25</v>
       </c>
       <c r="B3" s="1">
-        <v>6052</v>
+        <v>3221</v>
       </c>
       <c r="C3" s="1">
-        <v>27001</v>
+        <v>27128</v>
       </c>
       <c r="D3" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E3" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F3" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>57.5</v>
+        <v>63.5</v>
       </c>
       <c r="B4" s="1">
-        <v>5794</v>
+        <v>3330</v>
       </c>
       <c r="C4" s="1">
-        <v>25757</v>
+        <v>25879</v>
       </c>
       <c r="D4" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E4" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F4" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>61.5</v>
       </c>
       <c r="B5" s="1">
-        <v>5436</v>
+        <v>3373</v>
       </c>
       <c r="C5" s="1">
-        <v>25236</v>
+        <v>25415</v>
       </c>
       <c r="D5" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E5" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F5" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>58</v>
       </c>
       <c r="B6" s="1">
-        <v>4956</v>
+        <v>3456</v>
       </c>
       <c r="C6" s="1">
-        <v>25198</v>
+        <v>25359</v>
       </c>
       <c r="D6" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E6" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F6" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>60.25</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
-        <v>4375</v>
+        <v>3792</v>
       </c>
       <c r="C7" s="1">
-        <v>25887</v>
+        <v>26007</v>
       </c>
       <c r="D7" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E7" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F7" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4292</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28802</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4675</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33776</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F9" s="1">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>65.75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4879</v>
+      </c>
+      <c r="C10" s="1">
+        <v>37092</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4982</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38325</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>68.25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5075</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38914</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F12" s="1">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5319</v>
+      </c>
+      <c r="C13" s="1">
+        <v>38596</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5628</v>
+      </c>
+      <c r="C14" s="1">
+        <v>38012</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F14" s="1">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5779</v>
+      </c>
+      <c r="C15" s="1">
+        <v>37574</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F15" s="1">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>62.75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5755</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36340</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F16" s="1">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5586</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35757</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>63.75</v>
       </c>
-      <c r="B8" s="1">
-        <v>3763</v>
-      </c>
-      <c r="C8" s="1">
-        <v>28715</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F8" s="1">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>68</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3272</v>
-      </c>
-      <c r="C9" s="1">
-        <v>33840</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F9" s="1">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2885</v>
-      </c>
-      <c r="C10" s="1">
-        <v>37281</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F10" s="1">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>74.75</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2429</v>
-      </c>
-      <c r="C11" s="1">
-        <v>38406</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F11" s="1">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1929</v>
-      </c>
-      <c r="C12" s="1">
-        <v>38956</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F12" s="1">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1487</v>
-      </c>
-      <c r="C13" s="1">
-        <v>38645</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F13" s="1">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>74</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1127</v>
-      </c>
-      <c r="C14" s="1">
-        <v>38015</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F14" s="1">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B18" s="1">
+        <v>5261</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35495</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>70.25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4829</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35756</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4604</v>
+      </c>
+      <c r="C20" s="1">
+        <v>37749</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>73.5</v>
       </c>
-      <c r="B15" s="1">
-        <v>880</v>
-      </c>
-      <c r="C15" s="1">
-        <v>37580</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F15" s="1">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>745</v>
-      </c>
-      <c r="C16" s="1">
-        <v>36353</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F16" s="1">
-        <v>17</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B21" s="1">
+        <v>4673</v>
+      </c>
+      <c r="C21" s="1">
+        <v>38970</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F21" s="1">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>72.25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4770</v>
+      </c>
+      <c r="C22" s="1">
+        <v>39371</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3388</v>
+      </c>
+      <c r="F22" s="1">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>70</v>
       </c>
-      <c r="B17" s="1">
-        <v>699</v>
-      </c>
-      <c r="C17" s="1">
-        <v>35657</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F17" s="1">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>70.25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>750</v>
-      </c>
-      <c r="C18" s="1">
-        <v>35476</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F18" s="1">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1">
-        <v>977</v>
-      </c>
-      <c r="C19" s="1">
-        <v>35831</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F19" s="1">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>71</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1320</v>
-      </c>
-      <c r="C20" s="1">
-        <v>38069</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F20" s="1">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1584</v>
-      </c>
-      <c r="C21" s="1">
-        <v>39386</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F21" s="1">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>74.25</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1737</v>
-      </c>
-      <c r="C22" s="1">
-        <v>39746</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4618</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3418</v>
-      </c>
-      <c r="F22" s="1">
-        <v>17</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>74</v>
-      </c>
       <c r="B23" s="1">
-        <v>1926</v>
+        <v>4778</v>
       </c>
       <c r="C23" s="1">
-        <v>38853</v>
+        <v>38558</v>
       </c>
       <c r="D23" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E23" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F23" s="1">
         <v>17</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>72.75</v>
+        <v>69.75</v>
       </c>
       <c r="B24" s="1">
-        <v>2185</v>
+        <v>4656</v>
       </c>
       <c r="C24" s="1">
-        <v>35757</v>
+        <v>35735</v>
       </c>
       <c r="D24" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E24" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F24" s="1">
         <v>17</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>68.75</v>
+        <v>68.5</v>
       </c>
       <c r="B25" s="1">
-        <v>2406</v>
+        <v>4389</v>
       </c>
       <c r="C25" s="1">
-        <v>32377</v>
+        <v>32417</v>
       </c>
       <c r="D25" s="1">
-        <v>4618</v>
+        <v>4543</v>
       </c>
       <c r="E25" s="1">
-        <v>3418</v>
+        <v>3388</v>
       </c>
       <c r="F25" s="1">
         <v>17</v>
